--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value421.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value421.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055320188732949</v>
+        <v>1.848522901535034</v>
       </c>
       <c r="B1">
-        <v>1.615095868436322</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2.6822786146005</v>
+        <v>2.275805950164795</v>
       </c>
       <c r="D1">
-        <v>2.776647373671695</v>
+        <v>1.475088357925415</v>
       </c>
       <c r="E1">
-        <v>0.7866823252007578</v>
+        <v>1.204766154289246</v>
       </c>
     </row>
   </sheetData>
